--- a/data/consolidado_turismo_LOTE 1.xlsx
+++ b/data/consolidado_turismo_LOTE 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\OneDrive\Documentos\fontur_colombia\visualizador\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EA3ACA-0B89-4D02-BBC6-0B99DA45B605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23C791-0915-485D-BEA0-76EAA9AF9EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1409">
   <si>
     <t>Departamento</t>
   </si>
@@ -1371,9 +1371,6 @@
     <t>http://www.fontur.com.co/es/fortalecimiento-de-la-promocion-y-el-mercadeo-turistico</t>
   </si>
   <si>
-    <t>Otro aspecto</t>
-  </si>
-  <si>
     <t>Participación de Putumayo en construcción del Plan Nacional de Desarrollo</t>
   </si>
   <si>
@@ -1557,9 +1554,6 @@
     <t>Refleja el apoyo estratégico al fortalecimiento institucional y promocional de destinos como Putumayo. Aporta a la planificación territorial turística con enfoque diferencial.</t>
   </si>
   <si>
-    <t>Planta turistica</t>
-  </si>
-  <si>
     <t>Aprobado proyecto que impulsará las narrativas en torno a las experiencias turísticas</t>
   </si>
   <si>
@@ -2653,9 +2647,6 @@
   </si>
   <si>
     <t>Influencia de la gastronomía colombiana</t>
-  </si>
-  <si>
-    <t>Turismo Cultural</t>
   </si>
   <si>
     <t>Desarrollo de Infraestructura Turística</t>
@@ -6185,10 +6176,14 @@
   <dimension ref="A1:J453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -7974,7 +7969,7 @@
         <v>269</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>270</v>
@@ -8066,7 +8061,7 @@
         <v>283</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>284</v>
@@ -8434,7 +8429,7 @@
         <v>346</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>347</v>
@@ -8457,7 +8452,7 @@
         <v>349</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>350</v>
@@ -8687,7 +8682,7 @@
         <v>389</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>390</v>
@@ -8733,7 +8728,7 @@
         <v>396</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>397</v>
@@ -9026,19 +9021,19 @@
         <v>47</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="G124" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9052,16 +9047,16 @@
         <v>21</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="F125" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="G125" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9075,16 +9070,16 @@
         <v>21</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="F126" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="G126" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9098,16 +9093,16 @@
         <v>21</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="F127" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G127" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9118,19 +9113,19 @@
         <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>448</v>
+        <v>47</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="G128" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9144,16 +9139,16 @@
         <v>31</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="F129" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="G129" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9167,16 +9162,16 @@
         <v>60</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="F130" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G130" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9190,13 +9185,13 @@
         <v>31</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="F131" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>30</v>
@@ -9213,13 +9208,13 @@
         <v>60</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="F132" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>30</v>
@@ -9236,13 +9231,13 @@
         <v>21</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="F133" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>30</v>
@@ -9259,13 +9254,13 @@
         <v>21</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="F134" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>30</v>
@@ -9282,13 +9277,13 @@
         <v>60</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="F135" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>30</v>
@@ -9305,13 +9300,13 @@
         <v>21</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="F136" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>30</v>
@@ -9328,13 +9323,13 @@
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="F137" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>30</v>
@@ -9351,13 +9346,13 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="F138" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>30</v>
@@ -9374,13 +9369,13 @@
         <v>60</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="F139" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>30</v>
@@ -9397,13 +9392,13 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="F140" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>30</v>
@@ -9420,13 +9415,13 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="F141" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>30</v>
@@ -9440,16 +9435,16 @@
         <v>25</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>30</v>
@@ -9466,13 +9461,13 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>30</v>
@@ -9489,13 +9484,13 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>30</v>
@@ -9512,13 +9507,13 @@
         <v>31</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>30</v>
@@ -9532,16 +9527,16 @@
         <v>25</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>510</v>
+        <v>16</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>30</v>
@@ -9558,13 +9553,13 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>30</v>
@@ -9578,16 +9573,16 @@
         <v>20</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>510</v>
+        <v>16</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>30</v>
@@ -9601,16 +9596,16 @@
         <v>20</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>510</v>
+        <v>16</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>30</v>
@@ -9624,16 +9619,16 @@
         <v>20</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>510</v>
+        <v>16</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>30</v>
@@ -9650,13 +9645,13 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>30</v>
@@ -9673,13 +9668,13 @@
         <v>21</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>30</v>
@@ -9696,13 +9691,13 @@
         <v>21</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>30</v>
@@ -9716,16 +9711,16 @@
         <v>20</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>510</v>
+        <v>16</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>30</v>
@@ -9742,13 +9737,13 @@
         <v>31</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>30</v>
@@ -9765,13 +9760,13 @@
         <v>31</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>30</v>
@@ -9788,13 +9783,13 @@
         <v>64</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>30</v>
@@ -9811,16 +9806,16 @@
         <v>21</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="G158" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9834,16 +9829,16 @@
         <v>64</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="G159" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="330" x14ac:dyDescent="0.25">
@@ -9857,16 +9852,16 @@
         <v>31</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="G160" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="345" x14ac:dyDescent="0.25">
@@ -9880,16 +9875,16 @@
         <v>21</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="G161" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9903,16 +9898,16 @@
         <v>64</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="G162" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9926,16 +9921,16 @@
         <v>64</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="G163" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9949,16 +9944,16 @@
         <v>64</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="G164" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9972,16 +9967,16 @@
         <v>64</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="G165" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -9995,16 +9990,16 @@
         <v>64</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="G166" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -10018,16 +10013,16 @@
         <v>64</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="G167" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -10041,16 +10036,16 @@
         <v>31</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="G168" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="315" x14ac:dyDescent="0.25">
@@ -10064,16 +10059,16 @@
         <v>64</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="G169" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="180" x14ac:dyDescent="0.25">
@@ -10087,16 +10082,16 @@
         <v>64</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>600</v>
-      </c>
       <c r="G170" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -10110,16 +10105,16 @@
         <v>64</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="G171" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="360" x14ac:dyDescent="0.25">
@@ -10133,16 +10128,16 @@
         <v>64</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="G172" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="270" x14ac:dyDescent="0.25">
@@ -10156,16 +10151,16 @@
         <v>64</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="G173" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="180" x14ac:dyDescent="0.25">
@@ -10179,16 +10174,16 @@
         <v>64</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="G174" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="360" x14ac:dyDescent="0.25">
@@ -10202,16 +10197,16 @@
         <v>64</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>616</v>
-      </c>
       <c r="G175" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="240" x14ac:dyDescent="0.25">
@@ -10225,16 +10220,16 @@
         <v>64</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="G176" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -10248,16 +10243,16 @@
         <v>64</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="G177" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="390" x14ac:dyDescent="0.25">
@@ -10271,16 +10266,16 @@
         <v>31</v>
       </c>
       <c r="D178" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="G178" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="375" x14ac:dyDescent="0.25">
@@ -10294,16 +10289,16 @@
         <v>9</v>
       </c>
       <c r="D179" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="G179" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="345" x14ac:dyDescent="0.25">
@@ -10317,16 +10312,16 @@
         <v>31</v>
       </c>
       <c r="D180" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="G180" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="345" x14ac:dyDescent="0.25">
@@ -10340,16 +10335,16 @@
         <v>64</v>
       </c>
       <c r="D181" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="G181" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="285" x14ac:dyDescent="0.25">
@@ -10363,16 +10358,16 @@
         <v>21</v>
       </c>
       <c r="D182" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="G182" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="330" x14ac:dyDescent="0.25">
@@ -10386,16 +10381,16 @@
         <v>26</v>
       </c>
       <c r="D183" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="G183" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="330" x14ac:dyDescent="0.25">
@@ -10409,16 +10404,16 @@
         <v>60</v>
       </c>
       <c r="D184" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="G184" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="390" x14ac:dyDescent="0.25">
@@ -10432,16 +10427,16 @@
         <v>31</v>
       </c>
       <c r="D185" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="G185" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="285" x14ac:dyDescent="0.25">
@@ -10455,16 +10450,16 @@
         <v>9</v>
       </c>
       <c r="D186" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>653</v>
-      </c>
       <c r="G186" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="330" x14ac:dyDescent="0.25">
@@ -10478,16 +10473,16 @@
         <v>31</v>
       </c>
       <c r="D187" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E187" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="G187" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="345" x14ac:dyDescent="0.25">
@@ -10501,16 +10496,16 @@
         <v>64</v>
       </c>
       <c r="D188" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="G188" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="345" x14ac:dyDescent="0.25">
@@ -10524,16 +10519,16 @@
         <v>21</v>
       </c>
       <c r="D189" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="E189" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>663</v>
-      </c>
       <c r="G189" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="315" x14ac:dyDescent="0.25">
@@ -10547,16 +10542,16 @@
         <v>26</v>
       </c>
       <c r="D190" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="E190" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="G190" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="375" x14ac:dyDescent="0.25">
@@ -10570,16 +10565,16 @@
         <v>60</v>
       </c>
       <c r="D191" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="360" x14ac:dyDescent="0.25">
@@ -10593,16 +10588,16 @@
         <v>31</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="315" x14ac:dyDescent="0.25">
@@ -10616,16 +10611,16 @@
         <v>9</v>
       </c>
       <c r="D193" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F193" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="E193" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>653</v>
-      </c>
       <c r="G193" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="300" x14ac:dyDescent="0.25">
@@ -10639,16 +10634,16 @@
         <v>31</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="330" x14ac:dyDescent="0.25">
@@ -10662,16 +10657,16 @@
         <v>64</v>
       </c>
       <c r="D195" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="E195" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>678</v>
-      </c>
       <c r="G195" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="345" x14ac:dyDescent="0.25">
@@ -10685,16 +10680,16 @@
         <v>21</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="315" x14ac:dyDescent="0.25">
@@ -10708,16 +10703,16 @@
         <v>26</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="390" x14ac:dyDescent="0.25">
@@ -10731,16 +10726,16 @@
         <v>60</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="390" x14ac:dyDescent="0.25">
@@ -10754,16 +10749,16 @@
         <v>31</v>
       </c>
       <c r="D199" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="G199" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="315" x14ac:dyDescent="0.25">
@@ -10777,16 +10772,16 @@
         <v>9</v>
       </c>
       <c r="D200" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="E200" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>653</v>
-      </c>
       <c r="G200" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="330" x14ac:dyDescent="0.25">
@@ -10800,16 +10795,16 @@
         <v>31</v>
       </c>
       <c r="D201" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E201" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="G201" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="345" x14ac:dyDescent="0.25">
@@ -10823,16 +10818,16 @@
         <v>64</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E202" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G202" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="345" x14ac:dyDescent="0.25">
@@ -10846,16 +10841,16 @@
         <v>21</v>
       </c>
       <c r="D203" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="E203" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>663</v>
-      </c>
       <c r="G203" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="315" x14ac:dyDescent="0.25">
@@ -10869,16 +10864,16 @@
         <v>26</v>
       </c>
       <c r="D204" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="E204" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="G204" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="375" x14ac:dyDescent="0.25">
@@ -10892,21 +10887,21 @@
         <v>60</v>
       </c>
       <c r="D205" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="G205" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>47</v>
@@ -10915,13 +10910,13 @@
         <v>47</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>6</v>
@@ -10929,7 +10924,7 @@
     </row>
     <row r="207" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>25</v>
@@ -10938,13 +10933,13 @@
         <v>31</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F207" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>6</v>
@@ -10952,7 +10947,7 @@
     </row>
     <row r="208" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>25</v>
@@ -10961,13 +10956,13 @@
         <v>31</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F208" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>6</v>
@@ -10975,7 +10970,7 @@
     </row>
     <row r="209" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>8</v>
@@ -10984,13 +10979,13 @@
         <v>64</v>
       </c>
       <c r="D209" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F209" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>6</v>
@@ -10998,7 +10993,7 @@
     </row>
     <row r="210" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>25</v>
@@ -11007,13 +11002,13 @@
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>6</v>
@@ -11021,7 +11016,7 @@
     </row>
     <row r="211" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>8</v>
@@ -11030,13 +11025,13 @@
         <v>64</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F211" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>6</v>
@@ -11044,7 +11039,7 @@
     </row>
     <row r="212" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>25</v>
@@ -11053,13 +11048,13 @@
         <v>21</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F212" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>6</v>
@@ -11067,7 +11062,7 @@
     </row>
     <row r="213" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>47</v>
@@ -11076,13 +11071,13 @@
         <v>47</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>6</v>
@@ -11090,7 +11085,7 @@
     </row>
     <row r="214" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>47</v>
@@ -11099,13 +11094,13 @@
         <v>47</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="F214" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>6</v>
@@ -11113,7 +11108,7 @@
     </row>
     <row r="215" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>25</v>
@@ -11122,13 +11117,13 @@
         <v>47</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F215" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>6</v>
@@ -11136,7 +11131,7 @@
     </row>
     <row r="216" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>25</v>
@@ -11145,13 +11140,13 @@
         <v>47</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>6</v>
@@ -11159,7 +11154,7 @@
     </row>
     <row r="217" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>25</v>
@@ -11168,13 +11163,13 @@
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>6</v>
@@ -11182,7 +11177,7 @@
     </row>
     <row r="218" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>47</v>
@@ -11191,13 +11186,13 @@
         <v>47</v>
       </c>
       <c r="D218" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F218" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>6</v>
@@ -11205,7 +11200,7 @@
     </row>
     <row r="219" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>25</v>
@@ -11214,13 +11209,13 @@
         <v>47</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F219" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>6</v>
@@ -11228,7 +11223,7 @@
     </row>
     <row r="220" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>20</v>
@@ -11237,13 +11232,13 @@
         <v>21</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>6</v>
@@ -11251,7 +11246,7 @@
     </row>
     <row r="221" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>25</v>
@@ -11260,13 +11255,13 @@
         <v>21</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F221" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>6</v>
@@ -11274,7 +11269,7 @@
     </row>
     <row r="222" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>25</v>
@@ -11283,13 +11278,13 @@
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>6</v>
@@ -11297,7 +11292,7 @@
     </row>
     <row r="223" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>25</v>
@@ -11309,10 +11304,10 @@
         <v>105</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>6</v>
@@ -11320,7 +11315,7 @@
     </row>
     <row r="224" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>47</v>
@@ -11329,13 +11324,13 @@
         <v>47</v>
       </c>
       <c r="D224" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>6</v>
@@ -11343,7 +11338,7 @@
     </row>
     <row r="225" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>8</v>
@@ -11355,10 +11350,10 @@
         <v>108</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>6</v>
@@ -11366,7 +11361,7 @@
     </row>
     <row r="226" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>25</v>
@@ -11375,13 +11370,13 @@
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F226" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>6</v>
@@ -11389,7 +11384,7 @@
     </row>
     <row r="227" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>25</v>
@@ -11398,13 +11393,13 @@
         <v>47</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>6</v>
@@ -11412,7 +11407,7 @@
     </row>
     <row r="228" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>47</v>
@@ -11421,13 +11416,13 @@
         <v>47</v>
       </c>
       <c r="D228" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>6</v>
@@ -11435,7 +11430,7 @@
     </row>
     <row r="229" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>47</v>
@@ -11444,13 +11439,13 @@
         <v>47</v>
       </c>
       <c r="D229" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F229" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>6</v>
@@ -11458,7 +11453,7 @@
     </row>
     <row r="230" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>25</v>
@@ -11467,13 +11462,13 @@
         <v>21</v>
       </c>
       <c r="D230" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F230" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>6</v>
@@ -11481,7 +11476,7 @@
     </row>
     <row r="231" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>8</v>
@@ -11490,13 +11485,13 @@
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F231" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>6</v>
@@ -11504,7 +11499,7 @@
     </row>
     <row r="232" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>25</v>
@@ -11516,10 +11511,10 @@
         <v>132</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>6</v>
@@ -11527,7 +11522,7 @@
     </row>
     <row r="233" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>47</v>
@@ -11536,13 +11531,13 @@
         <v>47</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G233" s="3" t="s">
         <v>6</v>
@@ -11550,7 +11545,7 @@
     </row>
     <row r="234" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>8</v>
@@ -11562,10 +11557,10 @@
         <v>153</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G234" s="3" t="s">
         <v>6</v>
@@ -11573,7 +11568,7 @@
     </row>
     <row r="235" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>25</v>
@@ -11582,13 +11577,13 @@
         <v>21</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="E235" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>6</v>
@@ -11596,7 +11591,7 @@
     </row>
     <row r="236" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>25</v>
@@ -11605,13 +11600,13 @@
         <v>47</v>
       </c>
       <c r="D236" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="F236" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>6</v>
@@ -11619,7 +11614,7 @@
     </row>
     <row r="237" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>25</v>
@@ -11628,13 +11623,13 @@
         <v>31</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>6</v>
@@ -11642,7 +11637,7 @@
     </row>
     <row r="238" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>25</v>
@@ -11651,13 +11646,13 @@
         <v>47</v>
       </c>
       <c r="D238" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F238" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>775</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>6</v>
@@ -11665,7 +11660,7 @@
     </row>
     <row r="239" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>25</v>
@@ -11674,13 +11669,13 @@
         <v>31</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F239" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>30</v>
@@ -11688,7 +11683,7 @@
     </row>
     <row r="240" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>8</v>
@@ -11697,13 +11692,13 @@
         <v>60</v>
       </c>
       <c r="D240" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F240" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>781</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>30</v>
@@ -11711,7 +11706,7 @@
     </row>
     <row r="241" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>8</v>
@@ -11720,21 +11715,21 @@
         <v>64</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F241" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="E241" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>785</v>
-      </c>
       <c r="G241" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="345" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>25</v>
@@ -11743,21 +11738,21 @@
         <v>64</v>
       </c>
       <c r="D242" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F242" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="E242" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>788</v>
-      </c>
       <c r="G242" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>25</v>
@@ -11766,21 +11761,21 @@
         <v>21</v>
       </c>
       <c r="D243" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F243" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="E243" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>791</v>
-      </c>
       <c r="G243" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>20</v>
@@ -11789,21 +11784,21 @@
         <v>64</v>
       </c>
       <c r="D244" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F244" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="G244" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>25</v>
@@ -11815,18 +11810,18 @@
         <v>174</v>
       </c>
       <c r="E245" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G245" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>8</v>
@@ -11835,21 +11830,21 @@
         <v>64</v>
       </c>
       <c r="D246" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F246" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="G246" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>25</v>
@@ -11858,21 +11853,21 @@
         <v>64</v>
       </c>
       <c r="D247" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F247" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E247" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>805</v>
-      </c>
       <c r="G247" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>25</v>
@@ -11881,21 +11876,21 @@
         <v>64</v>
       </c>
       <c r="D248" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F248" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="E248" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>808</v>
-      </c>
       <c r="G248" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>25</v>
@@ -11904,21 +11899,21 @@
         <v>64</v>
       </c>
       <c r="D249" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F249" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="E249" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>811</v>
-      </c>
       <c r="G249" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>25</v>
@@ -11927,21 +11922,21 @@
         <v>64</v>
       </c>
       <c r="D250" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F250" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="E250" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>814</v>
-      </c>
       <c r="G250" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>25</v>
@@ -11950,21 +11945,21 @@
         <v>64</v>
       </c>
       <c r="D251" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F251" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="E251" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>817</v>
-      </c>
       <c r="G251" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>25</v>
@@ -11973,21 +11968,21 @@
         <v>64</v>
       </c>
       <c r="D252" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F252" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="E252" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>820</v>
-      </c>
       <c r="G252" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>25</v>
@@ -11996,21 +11991,21 @@
         <v>64</v>
       </c>
       <c r="D253" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F253" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="E253" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>823</v>
-      </c>
       <c r="G253" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>8</v>
@@ -12019,21 +12014,21 @@
         <v>64</v>
       </c>
       <c r="D254" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F254" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="E254" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>826</v>
-      </c>
       <c r="G254" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>8</v>
@@ -12042,21 +12037,21 @@
         <v>64</v>
       </c>
       <c r="D255" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="F255" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="E255" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>829</v>
-      </c>
       <c r="G255" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>20</v>
@@ -12065,21 +12060,21 @@
         <v>26</v>
       </c>
       <c r="D256" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="F256" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="E256" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>832</v>
-      </c>
       <c r="G256" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>25</v>
@@ -12088,21 +12083,21 @@
         <v>64</v>
       </c>
       <c r="D257" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F257" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="E257" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>835</v>
-      </c>
       <c r="G257" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>8</v>
@@ -12111,21 +12106,21 @@
         <v>64</v>
       </c>
       <c r="D258" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="E258" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>838</v>
-      </c>
       <c r="G258" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>25</v>
@@ -12134,21 +12129,21 @@
         <v>64</v>
       </c>
       <c r="D259" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="F259" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="E259" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>841</v>
-      </c>
       <c r="G259" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>20</v>
@@ -12157,21 +12152,21 @@
         <v>64</v>
       </c>
       <c r="D260" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="F260" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="E260" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>844</v>
-      </c>
       <c r="G260" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>8</v>
@@ -12180,21 +12175,21 @@
         <v>64</v>
       </c>
       <c r="D261" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="F261" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="E261" s="3" t="s">
+      <c r="G261" s="3" t="s">
         <v>846</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>8</v>
@@ -12203,21 +12198,21 @@
         <v>64</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>25</v>
@@ -12226,21 +12221,21 @@
         <v>64</v>
       </c>
       <c r="D263" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="F263" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="E263" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>853</v>
-      </c>
       <c r="G263" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>25</v>
@@ -12249,21 +12244,21 @@
         <v>64</v>
       </c>
       <c r="D264" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F264" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="E264" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>856</v>
-      </c>
       <c r="G264" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>20</v>
@@ -12272,21 +12267,21 @@
         <v>64</v>
       </c>
       <c r="D265" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F265" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="E265" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>859</v>
-      </c>
       <c r="G265" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>388</v>
@@ -12295,21 +12290,21 @@
         <v>60</v>
       </c>
       <c r="D266" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="F266" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="E266" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>853</v>
-      </c>
       <c r="G266" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>25</v>
@@ -12318,21 +12313,21 @@
         <v>21</v>
       </c>
       <c r="D267" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="F267" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="E267" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="G267" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>25</v>
@@ -12341,21 +12336,21 @@
         <v>21</v>
       </c>
       <c r="D268" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="F268" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="E268" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>866</v>
-      </c>
       <c r="G268" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>25</v>
@@ -12364,21 +12359,21 @@
         <v>21</v>
       </c>
       <c r="D269" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="F269" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="E269" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>869</v>
-      </c>
       <c r="G269" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>25</v>
@@ -12387,21 +12382,21 @@
         <v>21</v>
       </c>
       <c r="D270" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="E270" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>872</v>
-      </c>
       <c r="G270" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>25</v>
@@ -12410,1470 +12405,1470 @@
         <v>21</v>
       </c>
       <c r="D271" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="F271" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="E271" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>875</v>
-      </c>
       <c r="G271" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D279" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="G279" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="G279" s="3" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D282" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="G282" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="G282" s="3" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D288" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="G288" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="G288" s="3" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="G294" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="G294" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D300" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="G300" s="3" t="s">
         <v>962</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="G300" s="3" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="G301" s="3" t="s">
         <v>966</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="G301" s="3" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G315" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G315" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="G323" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G329" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>8</v>
@@ -13882,21 +13877,21 @@
         <v>31</v>
       </c>
       <c r="D335" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G335" s="3" t="s">
         <v>1057</v>
-      </c>
-      <c r="E335" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G335" s="3" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>8</v>
@@ -13905,21 +13900,21 @@
         <v>31</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>20</v>
@@ -13928,21 +13923,21 @@
         <v>21</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>8</v>
@@ -13951,21 +13946,21 @@
         <v>31</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>8</v>
@@ -13974,21 +13969,21 @@
         <v>31</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>8</v>
@@ -13997,21 +13992,21 @@
         <v>31</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>25</v>
@@ -14020,21 +14015,21 @@
         <v>16</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>25</v>
@@ -14043,21 +14038,21 @@
         <v>31</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>25</v>
@@ -14066,21 +14061,21 @@
         <v>31</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="G343" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>25</v>
@@ -14089,21 +14084,21 @@
         <v>31</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>25</v>
@@ -14112,21 +14107,21 @@
         <v>31</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>25</v>
@@ -14135,21 +14130,21 @@
         <v>21</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>388</v>
@@ -14158,21 +14153,21 @@
         <v>21</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="G347" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>25</v>
@@ -14181,21 +14176,21 @@
         <v>31</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>25</v>
@@ -14204,21 +14199,21 @@
         <v>31</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>25</v>
@@ -14227,21 +14222,21 @@
         <v>31</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>25</v>
@@ -14250,21 +14245,21 @@
         <v>21</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>25</v>
@@ -14273,21 +14268,21 @@
         <v>31</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>25</v>
@@ -14296,21 +14291,21 @@
         <v>31</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B354" s="4" t="s">
         <v>8</v>
@@ -14319,21 +14314,21 @@
         <v>31</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>20</v>
@@ -14342,21 +14337,21 @@
         <v>31</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>8</v>
@@ -14365,21 +14360,21 @@
         <v>31</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>20</v>
@@ -14388,21 +14383,21 @@
         <v>21</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G357" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>388</v>
@@ -14411,21 +14406,21 @@
         <v>21</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>25</v>
@@ -14434,21 +14429,21 @@
         <v>21</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>25</v>
@@ -14457,21 +14452,21 @@
         <v>31</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>25</v>
@@ -14480,21 +14475,21 @@
         <v>31</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>20</v>
@@ -14503,21 +14498,21 @@
         <v>31</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>20</v>
@@ -14526,21 +14521,21 @@
         <v>31</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>20</v>
@@ -14549,21 +14544,21 @@
         <v>31</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>25</v>
@@ -14572,21 +14567,21 @@
         <v>31</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>388</v>
@@ -14595,21 +14590,21 @@
         <v>31</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>20</v>
@@ -14618,21 +14613,21 @@
         <v>31</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>20</v>
@@ -14641,21 +14636,21 @@
         <v>31</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>20</v>
@@ -14664,21 +14659,21 @@
         <v>31</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F369" s="4" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>25</v>
@@ -14687,21 +14682,21 @@
         <v>31</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>8</v>
@@ -14710,21 +14705,21 @@
         <v>31</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>25</v>
@@ -14733,21 +14728,21 @@
         <v>31</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>25</v>
@@ -14756,21 +14751,21 @@
         <v>31</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>25</v>
@@ -14779,21 +14774,21 @@
         <v>31</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>25</v>
@@ -14802,21 +14797,21 @@
         <v>31</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>25</v>
@@ -14825,21 +14820,21 @@
         <v>31</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>25</v>
@@ -14848,21 +14843,21 @@
         <v>31</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>25</v>
@@ -14871,21 +14866,21 @@
         <v>31</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>25</v>
@@ -14894,21 +14889,21 @@
         <v>31</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>25</v>
@@ -14917,21 +14912,21 @@
         <v>31</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>25</v>
@@ -14940,21 +14935,21 @@
         <v>31</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>25</v>
@@ -14963,21 +14958,21 @@
         <v>31</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>388</v>
@@ -14986,21 +14981,21 @@
         <v>21</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>25</v>
@@ -15009,21 +15004,21 @@
         <v>31</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>25</v>
@@ -15032,21 +15027,21 @@
         <v>31</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>25</v>
@@ -15055,21 +15050,21 @@
         <v>31</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>25</v>
@@ -15078,21 +15073,21 @@
         <v>31</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>25</v>
@@ -15101,21 +15096,21 @@
         <v>31</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>25</v>
@@ -15124,21 +15119,21 @@
         <v>31</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>25</v>
@@ -15147,21 +15142,21 @@
         <v>31</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>25</v>
@@ -15170,21 +15165,21 @@
         <v>31</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>25</v>
@@ -15193,21 +15188,21 @@
         <v>31</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>25</v>
@@ -15216,21 +15211,21 @@
         <v>31</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>25</v>
@@ -15239,21 +15234,21 @@
         <v>31</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>25</v>
@@ -15262,21 +15257,21 @@
         <v>31</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>25</v>
@@ -15285,21 +15280,21 @@
         <v>31</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>25</v>
@@ -15308,21 +15303,21 @@
         <v>31</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>25</v>
@@ -15331,21 +15326,21 @@
         <v>31</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>25</v>
@@ -15354,21 +15349,21 @@
         <v>31</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>388</v>
@@ -15377,21 +15372,21 @@
         <v>21</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>8</v>
@@ -15400,21 +15395,21 @@
         <v>9</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>8</v>
@@ -15423,21 +15418,21 @@
         <v>9</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B403" s="4" t="s">
         <v>20</v>
@@ -15446,21 +15441,21 @@
         <v>21</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>25</v>
@@ -15469,21 +15464,21 @@
         <v>31</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>20</v>
@@ -15492,21 +15487,21 @@
         <v>31</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>8</v>
@@ -15515,21 +15510,21 @@
         <v>31</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>8</v>
@@ -15538,21 +15533,21 @@
         <v>31</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B408" s="4" t="s">
         <v>388</v>
@@ -15561,21 +15556,21 @@
         <v>21</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B409" s="4" t="s">
         <v>25</v>
@@ -15584,21 +15579,21 @@
         <v>31</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B410" s="4" t="s">
         <v>20</v>
@@ -15607,21 +15602,21 @@
         <v>31</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>25</v>
@@ -15630,21 +15625,21 @@
         <v>21</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>25</v>
@@ -15653,21 +15648,21 @@
         <v>64</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>388</v>
@@ -15676,21 +15671,21 @@
         <v>31</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>20</v>
@@ -15699,13 +15694,13 @@
         <v>9</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>30</v>
@@ -15713,7 +15708,7 @@
     </row>
     <row r="415" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B415" s="4" t="s">
         <v>8</v>
@@ -15722,13 +15717,13 @@
         <v>64</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="G415" s="3" t="s">
         <v>30</v>
@@ -15736,7 +15731,7 @@
     </row>
     <row r="416" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B416" s="4" t="s">
         <v>25</v>
@@ -15745,13 +15740,13 @@
         <v>64</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>30</v>
@@ -15759,7 +15754,7 @@
     </row>
     <row r="417" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>8</v>
@@ -15768,13 +15763,13 @@
         <v>21</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="G417" s="3" t="s">
         <v>30</v>
@@ -15782,7 +15777,7 @@
     </row>
     <row r="418" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>25</v>
@@ -15794,10 +15789,10 @@
         <v>87</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="G418" s="3" t="s">
         <v>30</v>
@@ -15805,7 +15800,7 @@
     </row>
     <row r="419" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>25</v>
@@ -15814,13 +15809,13 @@
         <v>31</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="G419" s="3" t="s">
         <v>30</v>
@@ -15828,7 +15823,7 @@
     </row>
     <row r="420" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>25</v>
@@ -15837,13 +15832,13 @@
         <v>16</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="G420" s="3" t="s">
         <v>30</v>
@@ -15851,7 +15846,7 @@
     </row>
     <row r="421" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B421" s="4" t="s">
         <v>25</v>
@@ -15860,13 +15855,13 @@
         <v>16</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="G421" s="3" t="s">
         <v>30</v>
@@ -15874,7 +15869,7 @@
     </row>
     <row r="422" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B422" s="4" t="s">
         <v>25</v>
@@ -15883,13 +15878,13 @@
         <v>9</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>30</v>
@@ -15897,7 +15892,7 @@
     </row>
     <row r="423" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>25</v>
@@ -15906,13 +15901,13 @@
         <v>21</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="G423" s="3" t="s">
         <v>30</v>
@@ -15920,7 +15915,7 @@
     </row>
     <row r="424" spans="1:7" ht="345" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B424" s="4" t="s">
         <v>25</v>
@@ -15929,13 +15924,13 @@
         <v>16</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="G424" s="3" t="s">
         <v>30</v>
@@ -15943,7 +15938,7 @@
     </row>
     <row r="425" spans="1:7" ht="405" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B425" s="4" t="s">
         <v>25</v>
@@ -15952,13 +15947,13 @@
         <v>60</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="G425" s="3" t="s">
         <v>30</v>
@@ -15966,7 +15961,7 @@
     </row>
     <row r="426" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B426" s="4" t="s">
         <v>20</v>
@@ -15975,13 +15970,13 @@
         <v>21</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>30</v>
@@ -15989,7 +15984,7 @@
     </row>
     <row r="427" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>388</v>
@@ -15998,13 +15993,13 @@
         <v>16</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="G427" s="3" t="s">
         <v>30</v>
@@ -16012,7 +16007,7 @@
     </row>
     <row r="428" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>25</v>
@@ -16021,13 +16016,13 @@
         <v>9</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="G428" s="3" t="s">
         <v>30</v>
@@ -16035,7 +16030,7 @@
     </row>
     <row r="429" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>20</v>
@@ -16044,13 +16039,13 @@
         <v>31</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>30</v>
@@ -16058,7 +16053,7 @@
     </row>
     <row r="430" spans="1:7" ht="345" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B430" s="4" t="s">
         <v>25</v>
@@ -16067,13 +16062,13 @@
         <v>64</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="G430" s="3" t="s">
         <v>30</v>
@@ -16081,7 +16076,7 @@
     </row>
     <row r="431" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B431" s="4" t="s">
         <v>25</v>
@@ -16093,10 +16088,10 @@
         <v>105</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="G431" s="3" t="s">
         <v>30</v>
@@ -16104,7 +16099,7 @@
     </row>
     <row r="432" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B432" s="4" t="s">
         <v>25</v>
@@ -16113,13 +16108,13 @@
         <v>21</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>30</v>
@@ -16127,7 +16122,7 @@
     </row>
     <row r="433" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>25</v>
@@ -16136,13 +16131,13 @@
         <v>21</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>30</v>
@@ -16150,7 +16145,7 @@
     </row>
     <row r="434" spans="1:7" ht="405" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>388</v>
@@ -16159,13 +16154,13 @@
         <v>16</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>30</v>
@@ -16173,7 +16168,7 @@
     </row>
     <row r="435" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>8</v>
@@ -16182,13 +16177,13 @@
         <v>21</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>30</v>
@@ -16196,7 +16191,7 @@
     </row>
     <row r="436" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>25</v>
@@ -16205,13 +16200,13 @@
         <v>31</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="G436" s="3" t="s">
         <v>30</v>
@@ -16219,7 +16214,7 @@
     </row>
     <row r="437" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B437" s="4" t="s">
         <v>20</v>
@@ -16231,10 +16226,10 @@
         <v>132</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="G437" s="3" t="s">
         <v>30</v>
@@ -16242,7 +16237,7 @@
     </row>
     <row r="438" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>25</v>
@@ -16251,13 +16246,13 @@
         <v>60</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="G438" s="3" t="s">
         <v>30</v>
@@ -16265,7 +16260,7 @@
     </row>
     <row r="439" spans="1:7" ht="345" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>25</v>
@@ -16277,10 +16272,10 @@
         <v>144</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="G439" s="3" t="s">
         <v>30</v>
@@ -16288,7 +16283,7 @@
     </row>
     <row r="440" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B440" s="4" t="s">
         <v>25</v>
@@ -16297,13 +16292,13 @@
         <v>21</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="G440" s="3" t="s">
         <v>30</v>
@@ -16311,7 +16306,7 @@
     </row>
     <row r="441" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>25</v>
@@ -16320,13 +16315,13 @@
         <v>21</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="G441" s="3" t="s">
         <v>30</v>
@@ -16334,7 +16329,7 @@
     </row>
     <row r="442" spans="1:7" ht="390" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B442" s="4" t="s">
         <v>25</v>
@@ -16343,13 +16338,13 @@
         <v>31</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="G442" s="3" t="s">
         <v>30</v>
@@ -16357,7 +16352,7 @@
     </row>
     <row r="443" spans="1:7" ht="390" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B443" s="4" t="s">
         <v>25</v>
@@ -16366,13 +16361,13 @@
         <v>31</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="G443" s="3" t="s">
         <v>30</v>
@@ -16380,7 +16375,7 @@
     </row>
     <row r="444" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>25</v>
@@ -16389,13 +16384,13 @@
         <v>16</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="G444" s="3" t="s">
         <v>30</v>
@@ -16403,7 +16398,7 @@
     </row>
     <row r="445" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B445" s="4" t="s">
         <v>25</v>
@@ -16412,13 +16407,13 @@
         <v>60</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="G445" s="3" t="s">
         <v>30</v>
@@ -16426,7 +16421,7 @@
     </row>
     <row r="446" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>20</v>
@@ -16435,13 +16430,13 @@
         <v>16</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="G446" s="3" t="s">
         <v>30</v>
@@ -16449,163 +16444,163 @@
     </row>
     <row r="447" spans="1:7" ht="405" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="E447" s="3" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="448" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="449" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D449" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G449" s="3" t="s">
         <v>1333</v>
-      </c>
-      <c r="E449" s="3" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F449" s="2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G449" s="3" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="450" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D450" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G450" s="3" t="s">
         <v>1337</v>
-      </c>
-      <c r="E450" s="3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="F450" s="2" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G450" s="3" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="451" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="452" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="453" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>876</v>
+        <v>25</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
